--- a/biology/Histoire de la zoologie et de la botanique/James_Hall_(paléontologue)/James_Hall_(paléontologue).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/James_Hall_(paléontologue)/James_Hall_(paléontologue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>James_Hall_(pal%C3%A9ontologue)</t>
+          <t>James_Hall_(paléontologue)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Hall est un géologue et un paléontologue américain, né le 12 septembre 1811 à Hingham (Massachusetts) et mort le 7 août 1898 à Bethlehem (New Hampshire). Ce spécialiste de la stratigraphie a joué un rôle majeur dans le développement de la paléontologie aux États-Unis d'Amérique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>James_Hall_(pal%C3%A9ontologue)</t>
+          <t>James_Hall_(paléontologue)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils aîné d’une fratrie de quatre enfants. Ses parents, James Hall et Sousanna Dourdain Hall, ont émigré de Grande-Bretagne deux ans avant sa naissance.. Hall s’intéresse très tôt pour la science et entre au Rensselaer Polytechnic Institute, un établissement récemment créé qui encourage la participation des étudiants et qui est spécialisé dans les domaines scientifiques. Il est l’un des étudiants d’Amos Eaton (1776-1842) et d’Ebenezer Emmons (1799-1863), deux importants géologues. Hall est diplômé avec mention en 1832, reçoit sa maîtrise l’année suivante. Il reste à l’Institut Rensselaer pour y enseigner la chimie et, plus tard, la géologie.
 En 1836, un programme de recherche sur plusieurs années est lancé pour récolter des informations sur la géologie et l’histoire naturelle de l’État de New York. Afin de faciliter les recherches, l’État est divisé en quatre districts. Hall devient le géologue assistant d’Ebenezer Emmons pour le quatrième districts, situé à l’ouest de l’État. La mission initiale d’Hall est d’étudier les dépôts de fer des monts Adirondack. L’année suivante, le programme est redéfini et Hall reçoit la charge intégrale du quatrième district. D’autres géologues travaillent pour ce programme dont Lardner Vanuxem (1792-1848) et Timothy Abbott Conrad (1803-1877). Ensemble, ils établissent la stratigraphie de l’État de New York et définissent les définitions stratigraphiques à partir de toponymes locaux.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>James_Hall_(pal%C3%A9ontologue)</t>
+          <t>James_Hall_(paléontologue)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1843 : Geology of New York, Part IV.
 1847-1894 : Paleontology of New York, 8 volumes.
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>James_Hall_(pal%C3%A9ontologue)</t>
+          <t>James_Hall_(paléontologue)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « James Hall (1811-1898) » (voir la liste des auteurs).</t>
         </is>
